--- a/2021.11_2022.3/文章列表.xlsx
+++ b/2021.11_2022.3/文章列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t xml:space="preserve">如何编写 RPM 的 spec 文件 | Linux 中国
 </t>
@@ -439,6 +439,22 @@
   </si>
   <si>
     <t>https://blog.csdn.net/qq_44621510/article/details/90339728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python去掉字符串中重复字符的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_38168559/article/details/101563466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zhang-dan/p/12612821.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头浏览器，selenium自动化截图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1441,10 +1457,22 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,8 +2222,10 @@
     <hyperlink ref="C50" r:id="rId32"/>
     <hyperlink ref="C51" r:id="rId33"/>
     <hyperlink ref="C52" r:id="rId34"/>
+    <hyperlink ref="C53" r:id="rId35"/>
+    <hyperlink ref="C54" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/2021.11_2022.3/文章列表.xlsx
+++ b/2021.11_2022.3/文章列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t xml:space="preserve">如何编写 RPM 的 spec 文件 | Linux 中国
 </t>
@@ -455,6 +455,39 @@
   </si>
   <si>
     <t>头浏览器，selenium自动化截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/5320ff8046b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Python中调用命令行的几种方法
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kkwen.cn/index.php/archives/24/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python点击鼠标阻止屏幕休眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unofficial Windows Binaries for Python Extension Packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lfd.uci.edu/~gohlke/pythonlibs/#pyhook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python：ModuleNotFoundError: No module named 'windows'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_38917807/article/details/81667041</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1475,24 +1508,48 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,8 +2281,12 @@
     <hyperlink ref="C52" r:id="rId34"/>
     <hyperlink ref="C53" r:id="rId35"/>
     <hyperlink ref="C54" r:id="rId36"/>
+    <hyperlink ref="C55" r:id="rId37"/>
+    <hyperlink ref="C56" r:id="rId38"/>
+    <hyperlink ref="C57" r:id="rId39" location="pyhook"/>
+    <hyperlink ref="C58" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>